--- a/Excel/American Needle/24.02.2022 American Needle — техничка.xlsx
+++ b/Excel/American Needle/24.02.2022 American Needle — техничка.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\American Needle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{174C5934-74DB-470E-BDBD-F0B2DBB4E011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E45F89A-24E6-4400-BF12-4115D055B17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8955B9A-0248-4FCC-8C96-50E2FE0510CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Техничка American Needle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -14594,11 +14594,11 @@
   <sheetPr codeName="Лист9">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:BD231"/>
+  <dimension ref="A1:AM231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC1" sqref="BC1:BC1048576"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="98.1" customHeight="1" x14ac:dyDescent="0.25"/>
